--- a/中期检查/2.需求分析阶段/需求列表.xlsx
+++ b/中期检查/2.需求分析阶段/需求列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>需求编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,14 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除留言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,14 +208,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员可添加文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员可删除文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>管理员可删除留言</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +220,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新加入的文章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>删除键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -305,6 +285,42 @@
   </si>
   <si>
     <t>SRS-012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员可添加有管理员权限的用户删除用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新用户的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后新用户可登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于管理员登录在网页中有记录，为了保质安全需要退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出登录键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从sesssion删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浏览器中不在记录登录信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -657,7 +673,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -748,25 +764,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -820,7 +836,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -829,16 +845,16 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,96 +865,96 @@
         <v>36</v>
       </c>
       <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
       </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
         <v>53</v>
       </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -946,19 +962,19 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H13">
         <v>1</v>
